--- a/groupe1.xlsx
+++ b/groupe1.xlsx
@@ -12,51 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="101">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>PJ (KINR6AD2)</t>
+  </si>
+  <si>
+    <t>KINR6AD2</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>Télécoms (KINX6AC1)</t>
+  </si>
+  <si>
+    <t>KINX6AC1</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
-    <t>PJ (KINR6AD2)</t>
-  </si>
-  <si>
-    <t>KINR6AD2</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>samedi</t>
-  </si>
-  <si>
-    <t>Télécoms (KINX6AC1)</t>
-  </si>
-  <si>
-    <t>KINX6AC1</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
     <t>Sport (KUPX6BA4)</t>
   </si>
   <si>
     <t>KUPX6BA4</t>
   </si>
   <si>
-    <t>lundi</t>
+    <t>vendredi</t>
   </si>
   <si>
     <t>Anglais (KUPX6BA1)</t>
@@ -125,7 +125,7 @@
     <t>Réseaux d'opérateurs (KINX6AB1)</t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t>Gest. de Projets (KINR6AD1) (AA)</t>
@@ -273,18 +273,6 @@
   </si>
   <si>
     <t>9:0</t>
-  </si>
-  <si>
-    <t>8:45</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>16:45</t>
   </si>
   <si>
     <t>TCP/IP (KINX6AB2) /TP/GA</t>
@@ -389,7 +377,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44931.0</v>
+        <v>46027.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -420,7 +408,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44933.0</v>
+        <v>46029.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -451,7 +439,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>44934.0</v>
+        <v>46030.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>11</v>
@@ -482,7 +470,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44935.0</v>
+        <v>46031.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>14</v>
@@ -521,7 +509,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>44938.0</v>
+        <v>46034.0</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>1</v>
@@ -552,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="1">
-        <v>44940.0</v>
+        <v>46036.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>7</v>
@@ -583,7 +571,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n" s="1">
-        <v>44941.0</v>
+        <v>46037.0</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>11</v>
@@ -660,7 +648,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>44942.0</v>
+        <v>46038.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>14</v>
@@ -745,7 +733,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>44945.0</v>
+        <v>46041.0</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>1</v>
@@ -845,7 +833,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>44947.0</v>
+        <v>46043.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>7</v>
@@ -899,7 +887,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>44948.0</v>
+        <v>46044.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>11</v>
@@ -976,7 +964,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="1">
-        <v>44949.0</v>
+        <v>46045.0</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>14</v>
@@ -1038,7 +1026,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="1">
-        <v>44952.0</v>
+        <v>46048.0</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>1</v>
@@ -1138,7 +1126,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n" s="1">
-        <v>44953.0</v>
+        <v>46049.0</v>
       </c>
       <c r="B45" t="s" s="0">
         <v>37</v>
@@ -1215,7 +1203,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n" s="1">
-        <v>44954.0</v>
+        <v>46050.0</v>
       </c>
       <c r="B49" t="s" s="0">
         <v>7</v>
@@ -1246,7 +1234,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>11</v>
@@ -1369,7 +1357,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="1">
-        <v>44956.0</v>
+        <v>46052.0</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>14</v>
@@ -1431,7 +1419,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n" s="1">
-        <v>44959.0</v>
+        <v>46055.0</v>
       </c>
       <c r="B61" t="s" s="0">
         <v>1</v>
@@ -1531,7 +1519,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="1">
-        <v>44960.0</v>
+        <v>46056.0</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>37</v>
@@ -1608,7 +1596,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n" s="1">
-        <v>44961.0</v>
+        <v>46057.0</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>7</v>
@@ -1662,7 +1650,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>11</v>
@@ -1785,7 +1773,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="1">
-        <v>44963.0</v>
+        <v>46059.0</v>
       </c>
       <c r="B79" t="s" s="0">
         <v>14</v>
@@ -1847,7 +1835,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n" s="1">
-        <v>44966.0</v>
+        <v>46062.0</v>
       </c>
       <c r="B83" t="s" s="0">
         <v>1</v>
@@ -1947,7 +1935,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="1">
-        <v>44967.0</v>
+        <v>46063.0</v>
       </c>
       <c r="B88" t="s" s="0">
         <v>37</v>
@@ -2047,7 +2035,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n" s="1">
-        <v>44968.0</v>
+        <v>46064.0</v>
       </c>
       <c r="B93" t="s" s="0">
         <v>7</v>
@@ -2147,7 +2135,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="1">
-        <v>44969.0</v>
+        <v>46065.0</v>
       </c>
       <c r="B98" t="s" s="0">
         <v>11</v>
@@ -2247,7 +2235,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n" s="1">
-        <v>44970.0</v>
+        <v>46066.0</v>
       </c>
       <c r="B103" t="s" s="0">
         <v>14</v>
@@ -2355,7 +2343,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="1">
-        <v>44973.0</v>
+        <v>46069.0</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>1</v>
@@ -2455,7 +2443,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n" s="1">
-        <v>44974.0</v>
+        <v>46070.0</v>
       </c>
       <c r="B114" t="s" s="0">
         <v>37</v>
@@ -2532,7 +2520,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n" s="1">
-        <v>44975.0</v>
+        <v>46071.0</v>
       </c>
       <c r="B118" t="s" s="0">
         <v>7</v>
@@ -2632,7 +2620,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n" s="1">
-        <v>44976.0</v>
+        <v>46072.0</v>
       </c>
       <c r="B123" t="s" s="0">
         <v>11</v>
@@ -2732,7 +2720,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n" s="1">
-        <v>44977.0</v>
+        <v>46073.0</v>
       </c>
       <c r="B128" t="s" s="0">
         <v>14</v>
@@ -2840,7 +2828,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n" s="1">
-        <v>44980.0</v>
+        <v>46076.0</v>
       </c>
       <c r="B134" t="s" s="0">
         <v>1</v>
@@ -2940,7 +2928,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n" s="1">
-        <v>44981.0</v>
+        <v>46077.0</v>
       </c>
       <c r="B139" t="s" s="0">
         <v>37</v>
@@ -3040,7 +3028,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n" s="1">
-        <v>44982.0</v>
+        <v>46078.0</v>
       </c>
       <c r="B144" t="s" s="0">
         <v>7</v>
@@ -3094,7 +3082,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n" s="1">
-        <v>44983.0</v>
+        <v>46079.0</v>
       </c>
       <c r="B147" t="s" s="0">
         <v>11</v>
@@ -3194,7 +3182,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n" s="1">
-        <v>44984.0</v>
+        <v>46080.0</v>
       </c>
       <c r="B152" t="s" s="0">
         <v>14</v>
@@ -3302,7 +3290,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B158" t="s" s="0">
         <v>37</v>
@@ -3402,7 +3390,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B163" t="s" s="0">
         <v>7</v>
@@ -3456,7 +3444,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B166" t="s" s="0">
         <v>11</v>
@@ -3556,7 +3544,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n" s="1">
-        <v>44998.0</v>
+        <v>46094.0</v>
       </c>
       <c r="B171" t="s" s="0">
         <v>14</v>
@@ -3664,7 +3652,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n" s="1">
-        <v>45001.0</v>
+        <v>46097.0</v>
       </c>
       <c r="B177" t="s" s="0">
         <v>1</v>
@@ -3695,7 +3683,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B179" t="s" s="0">
         <v>37</v>
@@ -3795,7 +3783,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n" s="1">
-        <v>45003.0</v>
+        <v>46099.0</v>
       </c>
       <c r="B184" t="s" s="0">
         <v>7</v>
@@ -3826,7 +3814,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B186" t="s" s="0">
         <v>11</v>
@@ -3903,7 +3891,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n" s="1">
-        <v>45005.0</v>
+        <v>46101.0</v>
       </c>
       <c r="B190" t="s" s="0">
         <v>14</v>
@@ -3988,7 +3976,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n" s="1">
-        <v>45008.0</v>
+        <v>46104.0</v>
       </c>
       <c r="B195" t="s" s="0">
         <v>1</v>
@@ -4042,7 +4030,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B198" t="s" s="0">
         <v>37</v>
@@ -4096,7 +4084,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n" s="1">
-        <v>45010.0</v>
+        <v>46106.0</v>
       </c>
       <c r="B201" t="s" s="0">
         <v>7</v>
@@ -4150,7 +4138,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B204" t="s" s="0">
         <v>11</v>
@@ -4165,7 +4153,7 @@
         <v>42</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E205" t="n" s="0">
         <v>2.0</v>
@@ -4188,7 +4176,7 @@
         <v>21</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="E206" t="n" s="0">
         <v>2.0</v>
@@ -4211,7 +4199,7 @@
         <v>13</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="E207" t="n" s="0">
         <v>2.0</v>
@@ -4234,7 +4222,7 @@
         <v>76</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E208" t="n" s="0">
         <v>2.0</v>
@@ -4250,7 +4238,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n" s="1">
-        <v>45012.0</v>
+        <v>46108.0</v>
       </c>
       <c r="B209" t="s" s="0">
         <v>14</v>
@@ -4335,7 +4323,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n" s="1">
-        <v>45016.0</v>
+        <v>46112.0</v>
       </c>
       <c r="B214" t="s" s="0">
         <v>37</v>
@@ -4343,7 +4331,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B215" s="0"/>
       <c r="C215" t="s" s="0">
@@ -4366,7 +4354,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B216" s="0"/>
       <c r="C216" t="s" s="0">
@@ -4389,7 +4377,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B217" t="s" s="0">
         <v>7</v>
@@ -4397,7 +4385,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B218" s="0"/>
       <c r="C218" t="s" s="0">
@@ -4443,11 +4431,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B220" s="0"/>
       <c r="C220" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D220" t="s" s="0">
         <v>31</v>
@@ -4466,7 +4454,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B221" t="s" s="0">
         <v>11</v>
@@ -4474,7 +4462,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B222" s="0"/>
       <c r="C222" t="s" s="0">
@@ -4497,7 +4485,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B223" s="0"/>
       <c r="C223" t="s" s="0">
@@ -4543,7 +4531,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B225" s="0"/>
       <c r="C225" t="s" s="0">
@@ -4566,7 +4554,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n" s="1">
-        <v>45019.0</v>
+        <v>46115.0</v>
       </c>
       <c r="B226" t="s" s="0">
         <v>14</v>
@@ -4597,7 +4585,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B228" s="0"/>
       <c r="C228" t="s" s="0">
@@ -4620,7 +4608,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B229" s="0"/>
       <c r="C229" t="s" s="0">
@@ -4651,7 +4639,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n" s="1">
-        <v>45023.0</v>
+        <v>46119.0</v>
       </c>
       <c r="B231" t="s" s="0">
         <v>37</v>
@@ -4659,7 +4647,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B232" s="0"/>
       <c r="C232" t="s" s="0">
@@ -4682,7 +4670,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B233" s="0"/>
       <c r="C233" t="s" s="0">
@@ -4705,7 +4693,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B234" s="0"/>
       <c r="C234" t="s" s="0">
@@ -4728,11 +4716,11 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B235" s="0"/>
       <c r="C235" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D235" t="s" s="0">
         <v>10</v>
@@ -4751,7 +4739,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n" s="1">
-        <v>45024.0</v>
+        <v>46120.0</v>
       </c>
       <c r="B236" t="s" s="0">
         <v>7</v>
@@ -4759,7 +4747,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B237" s="0"/>
       <c r="C237" t="s" s="0">
@@ -4782,7 +4770,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B238" s="0"/>
       <c r="C238" t="s" s="0">
@@ -4805,7 +4793,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B239" s="0"/>
       <c r="C239" t="s" s="0">
@@ -4828,7 +4816,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B240" s="0"/>
       <c r="C240" t="s" s="0">
@@ -4851,7 +4839,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n" s="1">
-        <v>45025.0</v>
+        <v>46121.0</v>
       </c>
       <c r="B241" t="s" s="0">
         <v>11</v>
@@ -4882,7 +4870,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B243" s="0"/>
       <c r="C243" t="s" s="0">
@@ -4905,11 +4893,11 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B244" s="0"/>
       <c r="C244" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D244" t="s" s="0">
         <v>10</v>
@@ -4928,11 +4916,11 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B245" s="0"/>
       <c r="C245" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D245" t="s" s="0">
         <v>31</v>
@@ -4951,7 +4939,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n" s="1">
-        <v>45026.0</v>
+        <v>46122.0</v>
       </c>
       <c r="B246" t="s" s="0">
         <v>14</v>
@@ -4959,7 +4947,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B247" s="0"/>
       <c r="C247" t="s" s="0">
@@ -4982,7 +4970,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B248" s="0"/>
       <c r="C248" t="s" s="0">
@@ -5013,7 +5001,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n" s="1">
-        <v>45029.0</v>
+        <v>46125.0</v>
       </c>
       <c r="B250" t="s" s="0">
         <v>1</v>
@@ -5021,7 +5009,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B251" s="0"/>
       <c r="C251" t="s" s="0">
@@ -5044,7 +5032,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B252" s="0"/>
       <c r="C252" t="s" s="0">
@@ -5067,7 +5055,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n" s="1">
-        <v>45030.0</v>
+        <v>46126.0</v>
       </c>
       <c r="B253" t="s" s="0">
         <v>37</v>
@@ -5075,11 +5063,11 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B254" s="0"/>
       <c r="C254" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D254" t="s" s="0">
         <v>4</v>
@@ -5121,7 +5109,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n" s="1">
-        <v>45031.0</v>
+        <v>46127.0</v>
       </c>
       <c r="B256" t="s" s="0">
         <v>7</v>
@@ -5129,7 +5117,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B257" s="0"/>
       <c r="C257" t="s" s="0">
@@ -5152,11 +5140,11 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B258" s="0"/>
       <c r="C258" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D258" t="s" s="0">
         <v>17</v>
@@ -5175,7 +5163,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B259" s="0"/>
       <c r="C259" t="s" s="0">
@@ -5198,7 +5186,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B260" s="0"/>
       <c r="C260" t="s" s="0">
@@ -5221,7 +5209,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n" s="1">
-        <v>45032.0</v>
+        <v>46128.0</v>
       </c>
       <c r="B261" t="s" s="0">
         <v>11</v>
@@ -5229,11 +5217,11 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B262" s="0"/>
       <c r="C262" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D262" t="s" s="0">
         <v>4</v>
@@ -5252,7 +5240,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B263" s="0"/>
       <c r="C263" t="s" s="0">
@@ -5275,11 +5263,11 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B264" s="0"/>
       <c r="C264" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D264" t="s" s="0">
         <v>31</v>
@@ -5298,7 +5286,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n" s="1">
-        <v>45033.0</v>
+        <v>46129.0</v>
       </c>
       <c r="B265" t="s" s="0">
         <v>14</v>
@@ -5306,7 +5294,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B266" s="0"/>
       <c r="C266" t="s" s="0">
@@ -5329,7 +5317,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B267" s="0"/>
       <c r="C267" t="s" s="0">
@@ -5360,7 +5348,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n" s="1">
-        <v>45036.0</v>
+        <v>46132.0</v>
       </c>
       <c r="B269" t="s" s="0">
         <v>1</v>
@@ -5368,7 +5356,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B270" s="0"/>
       <c r="C270" t="s" s="0">
@@ -5391,11 +5379,11 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B271" s="0"/>
       <c r="C271" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D271" t="s" s="0">
         <v>10</v>
@@ -5414,7 +5402,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n" s="1">
-        <v>45037.0</v>
+        <v>46133.0</v>
       </c>
       <c r="B272" t="s" s="0">
         <v>37</v>
@@ -5422,7 +5410,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B273" s="0"/>
       <c r="C273" t="s" s="0">
@@ -5468,7 +5456,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n" s="1">
-        <v>45038.0</v>
+        <v>46134.0</v>
       </c>
       <c r="B275" t="s" s="0">
         <v>7</v>
@@ -5476,11 +5464,11 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B276" s="0"/>
       <c r="C276" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D276" t="s" s="0">
         <v>4</v>
@@ -5499,11 +5487,11 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B277" s="0"/>
       <c r="C277" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D277" t="s" s="0">
         <v>10</v>
@@ -5522,7 +5510,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n" s="1">
-        <v>45039.0</v>
+        <v>46135.0</v>
       </c>
       <c r="B278" t="s" s="0">
         <v>11</v>
@@ -5530,11 +5518,11 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B279" s="0"/>
       <c r="C279" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D279" t="s" s="0">
         <v>4</v>
@@ -5553,11 +5541,11 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B280" s="0"/>
       <c r="C280" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D280" t="s" s="0">
         <v>10</v>
@@ -5576,7 +5564,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n" s="1">
-        <v>45040.0</v>
+        <v>46136.0</v>
       </c>
       <c r="B281" t="s" s="0">
         <v>14</v>
@@ -5584,11 +5572,11 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B282" s="0"/>
       <c r="C282" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D282" t="s" s="0">
         <v>4</v>
@@ -5607,11 +5595,11 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B283" s="0"/>
       <c r="C283" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D283" t="s" s="0">
         <v>10</v>
@@ -5638,7 +5626,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n" s="1">
-        <v>45050.0</v>
+        <v>46146.0</v>
       </c>
       <c r="B285" t="s" s="0">
         <v>1</v>
@@ -5646,7 +5634,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B286" s="0"/>
       <c r="C286" t="s" s="0">
@@ -5692,7 +5680,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n" s="1">
-        <v>45052.0</v>
+        <v>46148.0</v>
       </c>
       <c r="B288" t="s" s="0">
         <v>7</v>
@@ -5700,7 +5688,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B289" s="0"/>
       <c r="C289" t="s" s="0">
@@ -5746,7 +5734,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n" s="1">
-        <v>45053.0</v>
+        <v>46149.0</v>
       </c>
       <c r="B291" t="s" s="0">
         <v>11</v>
@@ -5777,11 +5765,11 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B293" s="0"/>
       <c r="C293" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D293" t="s" s="0">
         <v>10</v>
@@ -5808,7 +5796,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n" s="1">
-        <v>45057.0</v>
+        <v>46153.0</v>
       </c>
       <c r="B295" t="s" s="0">
         <v>1</v>
@@ -5816,7 +5804,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B296" s="0"/>
       <c r="C296" t="s" s="0">
@@ -5839,7 +5827,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B297" s="0"/>
       <c r="C297" t="s" s="0">
@@ -5862,7 +5850,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n" s="1">
-        <v>45058.0</v>
+        <v>46154.0</v>
       </c>
       <c r="B298" t="s" s="0">
         <v>37</v>
@@ -5870,7 +5858,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B299" s="0"/>
       <c r="C299" t="s" s="0">
@@ -5893,7 +5881,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B300" s="0"/>
       <c r="C300" t="s" s="0">
@@ -5924,7 +5912,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n" s="1">
-        <v>45064.0</v>
+        <v>46160.0</v>
       </c>
       <c r="B302" t="s" s="0">
         <v>1</v>
@@ -5932,11 +5920,11 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B303" s="0"/>
       <c r="C303" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D303" t="s" s="0">
         <v>22</v>
@@ -5955,11 +5943,11 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B304" s="0"/>
       <c r="C304" t="s" s="0">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D304" t="s" s="0">
         <v>17</v>
